--- a/書類/ガントチャート.xlsx
+++ b/書類/ガントチャート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\2023_Action\書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A17FD3-8E03-4D41-A826-5519670B8A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B99B6BF-AC65-497B-BEC0-3431F2E22C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="6000" xr2:uid="{7981A026-B2AE-4103-9768-1A0FFABC6B47}"/>
   </bookViews>
@@ -1702,7 +1702,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ゲ｜ム画面以外完成</a:t>
+            <a:t>ゲ｜ム画面だけ完成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1833,6 +1833,925 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167016</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521919</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C66E546-51D3-415B-B925-57CB4F8A0C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183674" y="584546"/>
+          <a:ext cx="354903" cy="2317316"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>ひとまず</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>流れ完成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>375781</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>194154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114822</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="グラフィックス 17" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3973D5B1-EBCD-4D9E-A7E8-536091C533A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3716055" y="2511469"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>288099</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27140</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>189978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="グラフィックス 18" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FA222F-6A08-4DB9-AC67-3853590D3679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2960318" y="2559485"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346553</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>39666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85594</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="グラフィックス 19" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA792292-4BD5-4FC0-AA10-E0AD83EEB905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4354882" y="2586625"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290186</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29228</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="グラフィックス 20" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3739F567-9824-45BF-A16D-A2735445E321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4966570" y="640916"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338203</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77244</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>208768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="グラフィックス 21" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3163FAD5-2E32-4B0C-835F-157243B153FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5682641" y="1200412"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323589</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62630</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>225469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="グラフィックス 22" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E5DFA9-F39B-4B9A-BB13-B852BB0472E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7672192" y="757825"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>386219</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>125260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="グラフィックス 23" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB54662-E5FD-4D32-BB8A-AC3085B3C177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10407041" y="601250"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>413359</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>210855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="グラフィックス 24" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6728CA9D-51E6-45E0-B915-31195F9097BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6425852" y="2580362"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>315238</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54279</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="グラフィックス 25" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD048AA-453B-485E-9339-5AE72881DA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7663841" y="2617940"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>373693</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112734</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>223381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="グラフィックス 26" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2902928-9C8B-4B6F-BE17-CC287F6119ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11062570" y="2592888"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327764</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66806</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="グラフィックス 27" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56BD9D2-BC9F-4194-8479-62FE58CE4205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8344422" y="2588713"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>306888</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>208768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45929</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="グラフィックス 28" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86656484-3E79-41D3-9B1A-5A2AC111D5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12999929" y="2526083"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>334027</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>73069</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>183716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="グラフィックス 29" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21915F86-73DB-41A9-B006-C2C2DB699706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14363178" y="2553223"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>340291</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>54280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>79332</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>231732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="グラフィックス 30" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC831307-54BB-4D0E-9EA7-048E08BC63B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15037496" y="2601239"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>367430</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>106471</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="グラフィックス 31" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C1CADD-5669-41C5-B321-0313F34C0D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15732690" y="2617940"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>384131</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123173</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="グラフィックス 32" descr="ネコ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEAFE0A-5B9C-46DB-91C5-7F5E44A3CFBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17753556" y="2613765"/>
+          <a:ext cx="407096" cy="407096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2138,7 +3057,7 @@
   <dimension ref="B1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/書類/ガントチャート.xlsx
+++ b/書類/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\2023_Action\書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B99B6BF-AC65-497B-BEC0-3431F2E22C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2810117-8460-4FEC-A987-0FD5378BB6CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="6000" xr2:uid="{7981A026-B2AE-4103-9768-1A0FFABC6B47}"/>
   </bookViews>
@@ -2304,13 +2304,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2357,13 +2357,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2569,13 +2569,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2622,13 +2622,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2675,13 +2675,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3056,7 +3056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99241E9F-B2F5-4F35-98FB-8B50473E007B}">
   <dimension ref="B1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>

--- a/書類/ガントチャート.xlsx
+++ b/書類/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\2023_Action\書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2810117-8460-4FEC-A987-0FD5378BB6CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7564B2-B9BB-49E1-8083-40C61F6AB67E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="6000" xr2:uid="{7981A026-B2AE-4103-9768-1A0FFABC6B47}"/>
   </bookViews>
@@ -2728,13 +2728,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3056,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99241E9F-B2F5-4F35-98FB-8B50473E007B}">
   <dimension ref="B1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/書類/ガントチャート.xlsx
+++ b/書類/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\2023_Action\書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7564B2-B9BB-49E1-8083-40C61F6AB67E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055303C-D9EA-4611-8ED3-DBCD9D97FD94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="6000" xr2:uid="{7981A026-B2AE-4103-9768-1A0FFABC6B47}"/>
   </bookViews>
